--- a/My SAS/SAS Graph/Proc Template/GTL.xlsx
+++ b/My SAS/SAS Graph/Proc Template/GTL.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NewDisk\SAS\My SAS\SAS Graph\Proc Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B5A15A-0662-4644-B04A-F0C1B298B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D4DD77-7FD8-47C1-BAD7-2B4247A13231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Components of Graph" sheetId="1" r:id="rId1"/>
-    <sheet name="GTL Syntax" sheetId="3" r:id="rId2"/>
-    <sheet name="Layouts" sheetId="2" r:id="rId3"/>
-    <sheet name="Dynamic and Macro variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Condition Logic" sheetId="5" r:id="rId5"/>
+    <sheet name="Template Category" sheetId="6" r:id="rId1"/>
+    <sheet name="Components of Graph" sheetId="1" r:id="rId2"/>
+    <sheet name="GTL Syntax" sheetId="3" r:id="rId3"/>
+    <sheet name="Layouts" sheetId="2" r:id="rId4"/>
+    <sheet name="Dynamic and Macro variables" sheetId="4" r:id="rId5"/>
+    <sheet name="Condition Logic" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>Components of a Graph</t>
   </si>
@@ -292,12 +293,147 @@
   <si>
     <t>4. The expression resolves to a single numeric value, which is true or false.</t>
   </si>
+  <si>
+    <t>Categories and PROC TEMPLATE Statements</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Statements Category</t>
+  </si>
+  <si>
+    <t>Statements</t>
+  </si>
+  <si>
+    <t>Navigate template stores and manage ODS templates</t>
+  </si>
+  <si>
+    <t>Template store</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Deletes the specified template</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Creates a link to an existing template</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>Lists items in one or more template stores</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>Specifies the locations to write to or read from when creating or using PROC TEMPLATE templates, and the order in which to search for them</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>Writes the source code for the specified template</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Tests the most recently created template by binding it to the specified data set</t>
+  </si>
+  <si>
+    <t>Create or modify ODS style</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>DEFINE STYLE</t>
+  </si>
+  <si>
+    <t>Creates a style for any destination that supports the STYLE= option</t>
+  </si>
+  <si>
+    <t>Create and modify ODS table, column, header, and footer templates</t>
+  </si>
+  <si>
+    <t>Tabular</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>Edits an existing template</t>
+  </si>
+  <si>
+    <t>DEFINE COLUMN</t>
+  </si>
+  <si>
+    <t>Creates a template for a column</t>
+  </si>
+  <si>
+    <t>DEFINE FOOTER</t>
+  </si>
+  <si>
+    <t>Creates a template for a table footer</t>
+  </si>
+  <si>
+    <t>DEFINE HEADER</t>
+  </si>
+  <si>
+    <t>Creates a template for a header</t>
+  </si>
+  <si>
+    <t>DEFINE TABLE</t>
+  </si>
+  <si>
+    <t>Creates a template for a table</t>
+  </si>
+  <si>
+    <t>Create or modify markup language tagsets</t>
+  </si>
+  <si>
+    <t>Markup language tagsets</t>
+  </si>
+  <si>
+    <t>DEFINE TAGSET</t>
+  </si>
+  <si>
+    <t>Creates a template for a tagset</t>
+  </si>
+  <si>
+    <t>Create or modify a crosstabulation table template</t>
+  </si>
+  <si>
+    <t>DEFINE CROSSTABS</t>
+  </si>
+  <si>
+    <t>Creates a template for a PROC FREQ crosstabulation table</t>
+  </si>
+  <si>
+    <t>Create or modify a graph template</t>
+  </si>
+  <si>
+    <t>Graphical</t>
+  </si>
+  <si>
+    <t>DEFINE STATGRAPH</t>
+  </si>
+  <si>
+    <t>Creates a template for a graph</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +513,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +545,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -468,34 +625,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,6 +660,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,6 +1059,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB4D185-F5C8-461C-B91B-57397AE1B1B5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A58"/>
   <sheetViews>
@@ -1012,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D871D6-875A-412B-B861-BC7558164C4D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1027,12 +1428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386412F-189C-4030-BC37-D43FEE9D42A4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1042,16 +1443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1136,7 +1537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4691888-2757-4BDA-9F14-7B90954A6F80}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1153,11 +1554,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -1171,10 +1572,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1182,15 +1583,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
@@ -1238,11 +1639,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F53510B-E3D8-45CB-AD33-663A32912249}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1259,46 +1660,46 @@
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>61</v>
       </c>
     </row>

--- a/My SAS/SAS Graph/Proc Template/GTL.xlsx
+++ b/My SAS/SAS Graph/Proc Template/GTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NewDisk\SAS\My SAS\SAS Graph\Proc Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5388798A-AADA-473F-A1E8-9608D7A66289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87589E7D-731A-4017-9D74-EFEC12B798F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Category" sheetId="6" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="Axis Appearance Features" sheetId="15" r:id="rId14"/>
     <sheet name="Style attributes" sheetId="16" r:id="rId15"/>
     <sheet name="Default GraphData styles" sheetId="17" r:id="rId16"/>
-    <sheet name="Dynamic statement in GTL" sheetId="18" r:id="rId17"/>
-    <sheet name="Tick Value Fit Policy" sheetId="19" r:id="rId18"/>
-    <sheet name="Units for measurements" sheetId="20" r:id="rId19"/>
-    <sheet name="Reserve keywords" sheetId="21" r:id="rId20"/>
-    <sheet name="ODS Graphics vs SAS-GRAPH" sheetId="22" r:id="rId21"/>
-    <sheet name="Plot type capability" sheetId="23" r:id="rId22"/>
-    <sheet name="Drawing Spaces" sheetId="9" r:id="rId23"/>
+    <sheet name="Marker Symbols" sheetId="24" r:id="rId17"/>
+    <sheet name="Dynamic statement in GTL" sheetId="18" r:id="rId18"/>
+    <sheet name="Tick Value Fit Policy" sheetId="19" r:id="rId19"/>
+    <sheet name="Units for measurements" sheetId="20" r:id="rId20"/>
+    <sheet name="Reserve keywords" sheetId="21" r:id="rId21"/>
+    <sheet name="ODS Graphics vs SAS-GRAPH" sheetId="22" r:id="rId22"/>
+    <sheet name="Plot type capability" sheetId="23" r:id="rId23"/>
+    <sheet name="Drawing Spaces" sheetId="9" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1842">
   <si>
     <t>Components of a Graph</t>
   </si>
@@ -6616,12 +6617,111 @@
   <si>
     <t>the area within the axes, not including the axis offsets. (This area is not available when using the SGPANEL and SGSCATTER procedures.)</t>
   </si>
+  <si>
+    <t>Supported Marker Symbols</t>
+  </si>
+  <si>
+    <t>Symbol Name</t>
+  </si>
+  <si>
+    <t>Plot Symbol</t>
+  </si>
+  <si>
+    <t>ArrowDown</t>
+  </si>
+  <si>
+    <t>StarFilled</t>
+  </si>
+  <si>
+    <t>Asterisk</t>
+  </si>
+  <si>
+    <t>Tack</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Tilde</t>
+  </si>
+  <si>
+    <t>CircleFilled</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>TriangleFilled</t>
+  </si>
+  <si>
+    <t>DiamondFilled</t>
+  </si>
+  <si>
+    <t>TriangleDown</t>
+  </si>
+  <si>
+    <t>GreaterThan</t>
+  </si>
+  <si>
+    <t>TriangleDownFilled</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>TriangleLeft</t>
+  </si>
+  <si>
+    <t>HomeDown</t>
+  </si>
+  <si>
+    <t>TriangleLeftFilled</t>
+  </si>
+  <si>
+    <t>HomeDownFilled</t>
+  </si>
+  <si>
+    <t>TriangleRight</t>
+  </si>
+  <si>
+    <t>IBeam</t>
+  </si>
+  <si>
+    <t>TriangleRightFilled</t>
+  </si>
+  <si>
+    <t>LessThan</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SquareFilled</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6824,6 +6924,12 @@
     <font>
       <sz val="18"/>
       <color rgb="FF013459"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7110,7 +7216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7334,6 +7440,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7370,9 +7482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7382,20 +7491,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7415,19 +7527,19 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7470,10 +7582,7 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11691,6 +11800,1902 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ArrowDown marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1772E9B-0241-1E98-3F6B-D849F69AD906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="491319"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="StarFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C13AC78-E6CB-D33F-4385-3793D0685B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="491319"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Asterisk marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92C0701-90C7-695F-6E94-8BEFEECAAF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="798394"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Tack marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B908BAF5-620E-2050-3D49-CD9801F26BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="798394"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Circle marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940B2E0D-C0D1-1C26-E7CD-0E54B3E1A190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="982639"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Tilde marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEC69B2-BDEA-EFA2-9849-1CA80384E91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="982639"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="CircleFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC62AC0-9882-1B8B-8ABD-9252FC6A9B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="1166884"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Triangle marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69A0E72-C821-B166-4C73-AE492C546A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="1166884"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Diamond marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C39803-0104-3BF1-CCF3-10DE8DD7013C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="1473958"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="TriangleFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6818316A-3195-FDB6-38C0-BF234C56389D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="1473958"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="DiamondFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6B71A2-53EF-0F31-F9F6-94F2E61541C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="1781033"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="TriangleDown marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F5BA43-7A1B-415B-05D7-F141FF1D685A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="1781033"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="GreaterThan marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A948930-13F2-2430-C7B4-85312074CDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="2088107"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="TriangleDownFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B225CE05-C454-2913-8AFD-12A71D123F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="2088107"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Hash marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA4AEDE-1258-540D-A40F-3DDA58B20DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="2395182"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="TriangleLeft marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3DB363-AE09-642C-FB81-6C86A76C0FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="2395182"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="HomeDown marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9502D8D-3C2F-24ED-79BB-82B4F284FBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="2702257"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="TriangleLeftFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5C6716-E518-C0E1-1E39-9D4BA8DAF04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="2702257"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="HomeDownFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADF22B0-6170-DF3F-F5D7-22BB9E0CBD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="3009331"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="TriangleRight marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED22DC1-3A75-2A75-4B3B-780CB2EDC391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="3009331"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="IBeam marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E34523F-0145-6C69-C92F-09F6ADB3D480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="3316406"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="TriangleRightFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC16E558-335B-5C2F-CD84-A35B4E7F8509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="3316406"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="LessThan marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415E7FA5-3DEC-3719-5CFF-F32290C320A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="3623481"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Union marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33830617-F524-6422-49DB-681DE3E24A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="3623481"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Plus marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A025349-9FB9-92BB-0023-14EFC4CBA577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="3807725"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="X marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BD5905-FCDB-B0B3-3BBA-3F956C962EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="3807725"/>
+          <a:ext cx="211541" cy="211541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Square marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A210314-7FBD-CE32-1477-BBA3EE0A169C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="3991970"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="Y marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4959F03C-E20D-5B97-8509-442DD91D9D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="3991970"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="SquareFilled marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C921BC50-5325-0316-1E72-652461B47C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="4176215"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>211540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Z marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377ADFBC-487F-7299-E5A4-210C4D9D0273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1801504" y="4176215"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="Star marker symbol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B78A92-A5CF-E97E-F94F-9D375A450887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600501" y="4483290"/>
+          <a:ext cx="211541" cy="211540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -12157,8 +14162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB4D185-F5C8-461C-B91B-57397AE1B1B5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -12170,12 +14175,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:4" ht="14.55" thickBot="1">
       <c r="A2" s="17" t="s">
@@ -12192,7 +14197,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -12206,7 +14211,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A4" s="81"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="18"/>
       <c r="C4" s="7" t="s">
         <v>75</v>
@@ -12216,7 +14221,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>77</v>
@@ -12226,7 +14231,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.45" thickBot="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>79</v>
@@ -12236,7 +14241,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>81</v>
@@ -12246,7 +14251,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>83</v>
@@ -12270,7 +14275,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42.45" customHeight="1" thickBot="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="82" t="s">
         <v>89</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -12284,7 +14289,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>93</v>
@@ -12294,7 +14299,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="18"/>
       <c r="C12" s="7" t="s">
         <v>95</v>
@@ -12304,7 +14309,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="18"/>
       <c r="C13" s="7" t="s">
         <v>97</v>
@@ -12314,7 +14319,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A14" s="82"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
@@ -12395,7 +14400,7 @@
       <c r="A1" s="96" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -12414,7 +14419,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>363</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -12422,13 +14427,13 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A6" s="82"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="41" t="s">
         <v>366</v>
       </c>
@@ -12466,7 +14471,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>375</v>
       </c>
       <c r="B11" s="40" t="s">
@@ -12474,13 +14479,13 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="81"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="41" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="16" t="s">
         <v>378</v>
       </c>
@@ -12489,7 +14494,7 @@
       <c r="A15" s="96" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="101"/>
     </row>
     <row r="16" spans="1:2" ht="14.55" thickBot="1">
       <c r="A16" s="6" t="s">
@@ -12548,22 +14553,22 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="97" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="97"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="102" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="102"/>
     </row>
     <row r="28" spans="1:2" ht="14.55" thickBot="1">
       <c r="A28" s="96" t="s">
         <v>395</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="101"/>
     </row>
     <row r="29" spans="1:2" ht="14.55" thickBot="1">
       <c r="A29" s="6" t="s">
@@ -12622,16 +14627,16 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="98" t="s">
         <v>406</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="98"/>
     </row>
     <row r="39" spans="1:2" ht="14.55" thickBot="1">
       <c r="A39" s="96" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="100"/>
+      <c r="B39" s="101"/>
     </row>
     <row r="40" spans="1:2" ht="14.55" thickBot="1">
       <c r="A40" s="6" t="s">
@@ -12690,17 +14695,17 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="97" t="s">
         <v>416</v>
       </c>
-      <c r="B47" s="95"/>
+      <c r="B47" s="97"/>
     </row>
     <row r="50" spans="1:3" ht="14.55" thickBot="1">
       <c r="A50" s="96" t="s">
         <v>417</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
     </row>
     <row r="51" spans="1:3" ht="14.55" thickBot="1">
       <c r="A51" s="6" t="s">
@@ -12785,18 +14790,18 @@
       <c r="C58" s="18"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="83" t="s">
         <v>435</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
     </row>
     <row r="62" spans="1:3" ht="14.55" thickBot="1">
       <c r="A62" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
     </row>
     <row r="63" spans="1:3" ht="14.55" thickBot="1">
       <c r="A63" s="6" t="s">
@@ -12854,18 +14859,18 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="83" t="s">
         <v>446</v>
       </c>
-      <c r="B69" s="81"/>
-      <c r="C69" s="81"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
     </row>
     <row r="71" spans="1:3" ht="14.55" thickBot="1">
       <c r="A71" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
     </row>
     <row r="72" spans="1:3" ht="28.5" thickBot="1">
       <c r="A72" s="6" t="s">
@@ -12924,6 +14929,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A71:C71"/>
@@ -12933,12 +14944,6 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" location="p0s0uitvoavi5jn1oztlwfqrkqla" display="https://documentation.sas.com/ - p0s0uitvoavi5jn1oztlwfqrkqla" xr:uid="{5AE2DF20-51B7-43D3-87EF-ECF4383FD884}"/>
@@ -12972,11 +14977,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
     </row>
     <row r="2" spans="1:3" ht="14.55" thickBot="1">
       <c r="A2" s="43" t="s">
@@ -13045,10 +15050,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="103"/>
     </row>
     <row r="10" spans="1:3" ht="14.55" thickBot="1">
       <c r="A10" s="43" t="s">
@@ -13123,10 +15128,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="103" t="s">
         <v>495</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="103"/>
     </row>
     <row r="21" spans="1:2" ht="14.55" thickBot="1">
       <c r="A21" s="43" t="s">
@@ -13233,10 +15238,10 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="103" t="s">
         <v>520</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="103"/>
     </row>
     <row r="36" spans="1:2" ht="14.55" thickBot="1">
       <c r="A36" s="43" t="s">
@@ -13311,18 +15316,18 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="103" t="s">
         <v>537</v>
       </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
     </row>
     <row r="51" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="104" t="s">
         <v>538</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
     </row>
     <row r="52" spans="1:3" ht="14.55" thickBot="1">
       <c r="A52" s="54" t="s">
@@ -13490,11 +15495,11 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="103" t="s">
         <v>577</v>
       </c>
-      <c r="B68" s="101"/>
-      <c r="C68" s="101"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
     </row>
     <row r="69" spans="1:3" ht="14.55" thickBot="1">
       <c r="A69" s="43" t="s">
@@ -13717,11 +15722,11 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="104" t="s">
         <v>625</v>
       </c>
-      <c r="B90" s="102"/>
-      <c r="C90" s="102"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="104"/>
     </row>
     <row r="91" spans="1:3" ht="14.55" thickBot="1">
       <c r="A91" s="54" t="s">
@@ -13757,11 +15762,11 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="104" t="s">
         <v>630</v>
       </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="102"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="104"/>
     </row>
     <row r="96" spans="1:3" ht="14.55" thickBot="1">
       <c r="A96" s="54" t="s">
@@ -13924,17 +15929,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="107"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:3">
@@ -13988,10 +15993,10 @@
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>653</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="41.95">
@@ -14013,10 +16018,10 @@
       <c r="C11" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="105" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="105"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="51" t="s">
@@ -14043,10 +16048,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="105" t="s">
         <v>660</v>
       </c>
-      <c r="B18" s="103"/>
+      <c r="B18" s="105"/>
     </row>
     <row r="19" spans="1:2" ht="195.6">
       <c r="A19" s="63" t="s">
@@ -14068,10 +16073,10 @@
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="105" t="s">
         <v>665</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="105"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="42" t="s">
@@ -14082,20 +16087,20 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="106" t="s">
         <v>668</v>
       </c>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="108" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="42.05" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="106"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
     </row>
     <row r="26" spans="1:2" ht="45" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="106"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="108"/>
     </row>
     <row r="27" spans="1:2" ht="139.69999999999999">
       <c r="A27" s="63" t="s">
@@ -14154,22 +16159,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="103" t="s">
         <v>674</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="51" t="s">
@@ -14188,10 +16193,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>679</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="103"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="51" t="s">
@@ -14242,10 +16247,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="103" t="s">
         <v>690</v>
       </c>
-      <c r="B15" s="101"/>
+      <c r="B15" s="103"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="51" t="s">
@@ -14264,10 +16269,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="103" t="s">
         <v>693</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="103"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="51" t="s">
@@ -14294,16 +16299,16 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="103" t="s">
         <v>698</v>
       </c>
-      <c r="B24" s="101"/>
+      <c r="B24" s="103"/>
     </row>
     <row r="25" spans="1:2" ht="29.95" customHeight="1">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="103" t="s">
         <v>699</v>
       </c>
-      <c r="B25" s="101"/>
+      <c r="B25" s="103"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="51" t="s">
@@ -14378,10 +16383,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.6" customHeight="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="103" t="s">
         <v>716</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="103"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="51" t="s">
@@ -14488,10 +16493,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="29.95" customHeight="1">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="103" t="s">
         <v>741</v>
       </c>
-      <c r="B49" s="101"/>
+      <c r="B49" s="103"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="51" t="s">
@@ -14534,10 +16539,10 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="103" t="s">
         <v>750</v>
       </c>
-      <c r="B56" s="101"/>
+      <c r="B56" s="103"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="51" t="s">
@@ -14572,10 +16577,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="103" t="s">
         <v>757</v>
       </c>
-      <c r="B62" s="101"/>
+      <c r="B62" s="103"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="51" t="s">
@@ -14602,10 +16607,10 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="103" t="s">
         <v>762</v>
       </c>
-      <c r="B67" s="101"/>
+      <c r="B67" s="103"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="51" t="s">
@@ -14648,16 +16653,16 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="101" t="s">
+      <c r="A74" s="103" t="s">
         <v>771</v>
       </c>
-      <c r="B74" s="101"/>
+      <c r="B74" s="103"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="103" t="s">
         <v>772</v>
       </c>
-      <c r="B75" s="101"/>
+      <c r="B75" s="103"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="51" t="s">
@@ -14684,10 +16689,10 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="103" t="s">
         <v>777</v>
       </c>
-      <c r="B80" s="101"/>
+      <c r="B80" s="103"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="51" t="s">
@@ -14714,10 +16719,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="103" t="s">
         <v>782</v>
       </c>
-      <c r="B85" s="101"/>
+      <c r="B85" s="103"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="51" t="s">
@@ -14744,10 +16749,10 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="101" t="s">
+      <c r="A90" s="103" t="s">
         <v>787</v>
       </c>
-      <c r="B90" s="101"/>
+      <c r="B90" s="103"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="51" t="s">
@@ -14766,10 +16771,10 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="101" t="s">
+      <c r="A94" s="103" t="s">
         <v>790</v>
       </c>
-      <c r="B94" s="101"/>
+      <c r="B94" s="103"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="51" t="s">
@@ -14838,20 +16843,20 @@
       <c r="D108" s="21"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="108" t="s">
+      <c r="A149" s="111" t="s">
         <v>647</v>
       </c>
-      <c r="B149" s="108"/>
-      <c r="C149" s="108"/>
-      <c r="D149" s="108"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="111"/>
+      <c r="D149" s="111"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="108" t="s">
+      <c r="A150" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="B150" s="108"/>
-      <c r="C150" s="108"/>
-      <c r="D150" s="108"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="111"/>
+      <c r="D150" s="111"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="64" t="s">
@@ -14910,16 +16915,16 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="108" t="s">
+      <c r="A157" s="111" t="s">
         <v>811</v>
       </c>
-      <c r="B157" s="108"/>
+      <c r="B157" s="111"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="108" t="s">
+      <c r="A158" s="111" t="s">
         <v>812</v>
       </c>
-      <c r="B158" s="108"/>
+      <c r="B158" s="111"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="64" t="s">
@@ -14951,10 +16956,10 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="108" t="s">
+      <c r="A192" s="111" t="s">
         <v>812</v>
       </c>
-      <c r="B192" s="108"/>
+      <c r="B192" s="111"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="64" t="s">
@@ -14989,12 +16994,12 @@
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="108" t="s">
+      <c r="A199" s="111" t="s">
         <v>825</v>
       </c>
-      <c r="B199" s="108"/>
-      <c r="C199" s="108"/>
-      <c r="D199" s="108"/>
+      <c r="B199" s="111"/>
+      <c r="C199" s="111"/>
+      <c r="D199" s="111"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="64" t="s">
@@ -15053,10 +17058,10 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="109" t="s">
+      <c r="A205" s="113" t="s">
         <v>841</v>
       </c>
-      <c r="B205" s="109"/>
+      <c r="B205" s="113"/>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="5" t="s">
@@ -15064,11 +17069,11 @@
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A265" s="108" t="s">
+      <c r="A265" s="111" t="s">
         <v>843</v>
       </c>
-      <c r="B265" s="108"/>
-      <c r="C265" s="108"/>
+      <c r="B265" s="111"/>
+      <c r="C265" s="111"/>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="64" t="s">
@@ -15137,11 +17142,11 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A273" s="108" t="s">
+      <c r="A273" s="111" t="s">
         <v>859</v>
       </c>
-      <c r="B273" s="108"/>
-      <c r="C273" s="108"/>
+      <c r="B273" s="111"/>
+      <c r="C273" s="111"/>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="64" t="s">
@@ -15180,11 +17185,11 @@
       <c r="C277" s="21"/>
     </row>
     <row r="279" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A279" s="108" t="s">
+      <c r="A279" s="111" t="s">
         <v>866</v>
       </c>
-      <c r="B279" s="108"/>
-      <c r="C279" s="108"/>
+      <c r="B279" s="111"/>
+      <c r="C279" s="111"/>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="64" t="s">
@@ -15198,7 +17203,7 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="104" t="s">
+      <c r="A281" s="106" t="s">
         <v>869</v>
       </c>
       <c r="B281" s="62" t="s">
@@ -15209,7 +17214,7 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="104"/>
+      <c r="A282" s="106"/>
       <c r="B282" s="62" t="s">
         <v>872</v>
       </c>
@@ -15249,11 +17254,11 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A287" s="108" t="s">
+      <c r="A287" s="111" t="s">
         <v>881</v>
       </c>
-      <c r="B287" s="108"/>
-      <c r="C287" s="108"/>
+      <c r="B287" s="111"/>
+      <c r="C287" s="111"/>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="64" t="s">
@@ -15322,11 +17327,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A295" s="108" t="s">
+      <c r="A295" s="111" t="s">
         <v>900</v>
       </c>
-      <c r="B295" s="108"/>
-      <c r="C295" s="108"/>
+      <c r="B295" s="111"/>
+      <c r="C295" s="111"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="64" t="s">
@@ -15401,11 +17406,11 @@
       <c r="C303" s="21"/>
     </row>
     <row r="305" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A305" s="108" t="s">
+      <c r="A305" s="111" t="s">
         <v>909</v>
       </c>
-      <c r="B305" s="108"/>
-      <c r="C305" s="108"/>
+      <c r="B305" s="111"/>
+      <c r="C305" s="111"/>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="64" t="s">
@@ -15485,17 +17490,17 @@
       </c>
     </row>
     <row r="313" spans="1:3" ht="29.95" customHeight="1">
-      <c r="A313" s="110" t="s">
+      <c r="A313" s="114" t="s">
         <v>921</v>
       </c>
-      <c r="B313" s="110"/>
-      <c r="C313" s="110"/>
+      <c r="B313" s="114"/>
+      <c r="C313" s="114"/>
     </row>
     <row r="316" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A316" s="111" t="s">
+      <c r="A316" s="112" t="s">
         <v>922</v>
       </c>
-      <c r="B316" s="111"/>
+      <c r="B316" s="112"/>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="64" t="s">
@@ -15506,7 +17511,7 @@
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="104" t="s">
+      <c r="A318" s="106" t="s">
         <v>923</v>
       </c>
       <c r="B318" s="62" t="s">
@@ -15514,25 +17519,25 @@
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="104"/>
+      <c r="A319" s="106"/>
       <c r="B319" s="62" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="27.95">
-      <c r="A320" s="104"/>
+      <c r="A320" s="106"/>
       <c r="B320" s="62" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="45.8" customHeight="1">
-      <c r="A321" s="104"/>
+      <c r="A321" s="106"/>
       <c r="B321" s="62" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="41.95">
-      <c r="A322" s="104" t="s">
+      <c r="A322" s="106" t="s">
         <v>928</v>
       </c>
       <c r="B322" s="62" t="s">
@@ -15540,25 +17545,25 @@
       </c>
     </row>
     <row r="323" spans="1:2" ht="69.849999999999994">
-      <c r="A323" s="104"/>
+      <c r="A323" s="106"/>
       <c r="B323" s="62" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="55.9">
-      <c r="A324" s="104"/>
+      <c r="A324" s="106"/>
       <c r="B324" s="62" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="69.849999999999994">
-      <c r="A325" s="104"/>
+      <c r="A325" s="106"/>
       <c r="B325" s="62" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="111.8">
-      <c r="A326" s="104" t="s">
+      <c r="A326" s="106" t="s">
         <v>933</v>
       </c>
       <c r="B326" s="62" t="s">
@@ -15566,58 +17571,58 @@
       </c>
     </row>
     <row r="327" spans="1:2" ht="27.95">
-      <c r="A327" s="104"/>
+      <c r="A327" s="106"/>
       <c r="B327" s="62" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="27.95">
-      <c r="A328" s="104"/>
+      <c r="A328" s="106"/>
       <c r="B328" s="62" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="27.95">
-      <c r="A329" s="104"/>
+      <c r="A329" s="106"/>
       <c r="B329" s="62" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="27.95">
-      <c r="A330" s="104"/>
+      <c r="A330" s="106"/>
       <c r="B330" s="62" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="104"/>
+      <c r="A331" s="106"/>
       <c r="B331" s="62" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="104"/>
+      <c r="A332" s="106"/>
       <c r="B332" s="62" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="104"/>
+      <c r="A333" s="106"/>
       <c r="B333" s="62" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="27.95">
-      <c r="A334" s="104"/>
+      <c r="A334" s="106"/>
       <c r="B334" s="62" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="108" t="s">
+      <c r="A336" s="111" t="s">
         <v>943</v>
       </c>
-      <c r="B336" s="108"/>
+      <c r="B336" s="111"/>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="62" t="s">
@@ -15663,16 +17668,16 @@
       </c>
     </row>
     <row r="344" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A344" s="111" t="s">
+      <c r="A344" s="112" t="s">
         <v>952</v>
       </c>
-      <c r="B344" s="111"/>
+      <c r="B344" s="112"/>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="108" t="s">
+      <c r="A355" s="111" t="s">
         <v>953</v>
       </c>
-      <c r="B355" s="108"/>
+      <c r="B355" s="111"/>
     </row>
     <row r="356" spans="1:2" ht="27.95">
       <c r="A356" s="64" t="s">
@@ -15747,10 +17752,10 @@
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A367" s="108" t="s">
+      <c r="A367" s="111" t="s">
         <v>972</v>
       </c>
-      <c r="B367" s="108"/>
+      <c r="B367" s="111"/>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="64" t="s">
@@ -15857,10 +17862,10 @@
       </c>
     </row>
     <row r="381" spans="1:2" ht="30.8" customHeight="1">
-      <c r="A381" s="112" t="s">
+      <c r="A381" s="110" t="s">
         <v>998</v>
       </c>
-      <c r="B381" s="108"/>
+      <c r="B381" s="111"/>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="62" t="s">
@@ -15869,13 +17874,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="A326:A334"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
     <mergeCell ref="A318:A321"/>
     <mergeCell ref="A199:D199"/>
     <mergeCell ref="A205:B205"/>
@@ -15888,30 +17910,13 @@
     <mergeCell ref="A305:C305"/>
     <mergeCell ref="A313:C313"/>
     <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="A326:A334"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="A367:B367"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15936,12 +17941,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>1000</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="51" t="s">
@@ -15958,7 +17963,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="41.95">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="106" t="s">
         <v>334</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -15972,7 +17977,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="104"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="62" t="s">
         <v>225</v>
       </c>
@@ -15984,7 +17989,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="104"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="62" t="s">
         <v>251</v>
       </c>
@@ -15996,7 +18001,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="104"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="62" t="s">
         <v>222</v>
       </c>
@@ -16008,7 +18013,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="41.95">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="106" t="s">
         <v>1011</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -16022,7 +18027,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="104"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="62" t="s">
         <v>225</v>
       </c>
@@ -16034,7 +18039,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="104"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="62" t="s">
         <v>251</v>
       </c>
@@ -16046,7 +18051,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="104"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="62" t="s">
         <v>222</v>
       </c>
@@ -16110,12 +18115,12 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="110" t="s">
         <v>1022</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="65"/>
@@ -16124,10 +18129,10 @@
       <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4" ht="29.95" customHeight="1">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="103" t="s">
         <v>1023</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="103"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="51" t="s">
@@ -16178,12 +18183,12 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="103" t="s">
         <v>1031</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
     </row>
     <row r="28" spans="1:4" ht="27.95">
       <c r="A28" s="51" t="s">
@@ -16462,11 +18467,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="51" t="s">
@@ -16535,11 +18540,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="109" t="s">
         <v>1087</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="51" t="s">
@@ -16614,12 +18619,12 @@
       <c r="C17" s="62"/>
     </row>
     <row r="19" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="109" t="s">
         <v>1103</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="51" t="s">
@@ -16678,12 +18683,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="109" t="s">
         <v>1116</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="51" t="s">
@@ -16766,20 +18771,20 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="103" t="s">
         <v>1128</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="1:4" ht="29.95" customHeight="1">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="103" t="s">
         <v>1129</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="51" t="s">
@@ -16852,12 +18857,12 @@
       <c r="D41" s="62"/>
     </row>
     <row r="43" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="103" t="s">
         <v>1128</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="51" t="s">
@@ -16920,12 +18925,12 @@
       <c r="D49" s="62"/>
     </row>
     <row r="51" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="103" t="s">
         <v>1150</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="51" t="s">
@@ -16976,10 +18981,10 @@
       <c r="D55" s="62"/>
     </row>
     <row r="60" spans="1:4" ht="29.3" customHeight="1">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="103" t="s">
         <v>1160</v>
       </c>
-      <c r="B60" s="101"/>
+      <c r="B60" s="103"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="51" t="s">
@@ -17014,10 +19019,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30.8" customHeight="1">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="103" t="s">
         <v>1169</v>
       </c>
-      <c r="B66" s="101"/>
+      <c r="B66" s="103"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="51" t="s">
@@ -17052,11 +19057,11 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A72" s="101" t="s">
+      <c r="A72" s="103" t="s">
         <v>1178</v>
       </c>
-      <c r="B72" s="101"/>
-      <c r="C72" s="101"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="51" t="s">
@@ -17214,161 +19219,161 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="115" t="s">
         <v>1207</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="117"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="101" t="s">
+      <c r="B92" s="103" t="s">
         <v>676</v>
       </c>
-      <c r="C92" s="101"/>
+      <c r="C92" s="103"/>
     </row>
     <row r="93" spans="1:3" ht="27.95">
       <c r="A93" s="62" t="s">
         <v>1208</v>
       </c>
-      <c r="B93" s="111" t="s">
+      <c r="B93" s="112" t="s">
         <v>1209</v>
       </c>
-      <c r="C93" s="111"/>
+      <c r="C93" s="112"/>
     </row>
     <row r="94" spans="1:3" ht="41.95">
       <c r="A94" s="62" t="s">
         <v>1210</v>
       </c>
-      <c r="B94" s="111" t="s">
+      <c r="B94" s="112" t="s">
         <v>1211</v>
       </c>
-      <c r="C94" s="111"/>
+      <c r="C94" s="112"/>
     </row>
     <row r="95" spans="1:3" ht="41.95">
       <c r="A95" s="62" t="s">
         <v>1212</v>
       </c>
-      <c r="B95" s="111" t="s">
+      <c r="B95" s="112" t="s">
         <v>1213</v>
       </c>
-      <c r="C95" s="111"/>
+      <c r="C95" s="112"/>
     </row>
     <row r="96" spans="1:3" ht="119.95" customHeight="1">
       <c r="A96" s="62" t="s">
         <v>1214</v>
       </c>
-      <c r="B96" s="111" t="s">
+      <c r="B96" s="112" t="s">
         <v>1215</v>
       </c>
-      <c r="C96" s="111"/>
+      <c r="C96" s="112"/>
     </row>
     <row r="97" spans="1:3" ht="132.05000000000001" customHeight="1">
       <c r="A97" s="62" t="s">
         <v>1216</v>
       </c>
-      <c r="B97" s="111" t="s">
+      <c r="B97" s="112" t="s">
         <v>1217</v>
       </c>
-      <c r="C97" s="111"/>
+      <c r="C97" s="112"/>
     </row>
     <row r="98" spans="1:3" ht="119.95" customHeight="1">
       <c r="A98" s="62" t="s">
         <v>1218</v>
       </c>
-      <c r="B98" s="111" t="s">
+      <c r="B98" s="112" t="s">
         <v>1219</v>
       </c>
-      <c r="C98" s="111"/>
+      <c r="C98" s="112"/>
     </row>
     <row r="99" spans="1:3" ht="118.5" customHeight="1">
       <c r="A99" s="62" t="s">
         <v>1220</v>
       </c>
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="112" t="s">
         <v>1221</v>
       </c>
-      <c r="C99" s="111"/>
+      <c r="C99" s="112"/>
     </row>
     <row r="100" spans="1:3" ht="27.95">
       <c r="A100" s="62" t="s">
         <v>1222</v>
       </c>
-      <c r="B100" s="111" t="s">
+      <c r="B100" s="112" t="s">
         <v>1223</v>
       </c>
-      <c r="C100" s="111"/>
+      <c r="C100" s="112"/>
     </row>
     <row r="101" spans="1:3" ht="74.95" customHeight="1">
       <c r="A101" s="62" t="s">
         <v>1224</v>
       </c>
-      <c r="B101" s="111" t="s">
+      <c r="B101" s="112" t="s">
         <v>1225</v>
       </c>
-      <c r="C101" s="111"/>
+      <c r="C101" s="112"/>
     </row>
     <row r="102" spans="1:3" ht="166.6" customHeight="1">
       <c r="A102" s="62" t="s">
         <v>1226</v>
       </c>
-      <c r="B102" s="111" t="s">
+      <c r="B102" s="112" t="s">
         <v>1227</v>
       </c>
-      <c r="C102" s="111"/>
+      <c r="C102" s="112"/>
     </row>
     <row r="103" spans="1:3" ht="155.30000000000001" customHeight="1">
       <c r="A103" s="62" t="s">
         <v>1228</v>
       </c>
-      <c r="B103" s="111" t="s">
+      <c r="B103" s="112" t="s">
         <v>1229</v>
       </c>
-      <c r="C103" s="111"/>
+      <c r="C103" s="112"/>
     </row>
     <row r="104" spans="1:3" ht="41.95">
       <c r="A104" s="62" t="s">
         <v>1230</v>
       </c>
-      <c r="B104" s="111" t="s">
+      <c r="B104" s="112" t="s">
         <v>1231</v>
       </c>
-      <c r="C104" s="111"/>
+      <c r="C104" s="112"/>
     </row>
     <row r="105" spans="1:3" ht="63.8" customHeight="1">
       <c r="A105" s="62" t="s">
         <v>1232</v>
       </c>
-      <c r="B105" s="111" t="s">
+      <c r="B105" s="112" t="s">
         <v>1233</v>
       </c>
-      <c r="C105" s="111"/>
+      <c r="C105" s="112"/>
     </row>
     <row r="106" spans="1:3" ht="69.849999999999994">
       <c r="A106" s="62" t="s">
         <v>1234</v>
       </c>
-      <c r="B106" s="111" t="s">
+      <c r="B106" s="112" t="s">
         <v>1235</v>
       </c>
-      <c r="C106" s="111"/>
+      <c r="C106" s="112"/>
     </row>
     <row r="107" spans="1:3" ht="107.2" customHeight="1">
       <c r="A107" s="62" t="s">
         <v>1236</v>
       </c>
-      <c r="B107" s="111" t="s">
+      <c r="B107" s="112" t="s">
         <v>1237</v>
       </c>
-      <c r="C107" s="111"/>
+      <c r="C107" s="112"/>
     </row>
     <row r="110" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A110" s="101" t="s">
+      <c r="A110" s="103" t="s">
         <v>1238</v>
       </c>
-      <c r="B110" s="101"/>
+      <c r="B110" s="103"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="62" t="s">
@@ -17468,11 +19473,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A72:C72"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
@@ -17485,18 +19497,11 @@
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A110:B110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17507,7 +19512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96465D0E-B5DA-466D-B0F3-E5ACA9019BAC}">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A137" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -17522,14 +19527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>1258</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="51" t="s">
@@ -17778,44 +19783,44 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="110" t="s">
         <v>1306</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="119" t="s">
         <v>1307</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="119" t="s">
         <v>1308</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="119" t="s">
         <v>1309</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="59" t="s">
@@ -17823,14 +19828,14 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="118" t="s">
+      <c r="A136" s="120" t="s">
         <v>1311</v>
       </c>
-      <c r="B136" s="118"/>
-      <c r="C136" s="118"/>
-      <c r="D136" s="118"/>
-      <c r="E136" s="118"/>
-      <c r="F136" s="118"/>
+      <c r="B136" s="120"/>
+      <c r="C136" s="120"/>
+      <c r="D136" s="120"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="120"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="64" t="s">
@@ -18193,14 +20198,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A155" s="112" t="s">
+      <c r="A155" s="110" t="s">
         <v>1336</v>
       </c>
-      <c r="B155" s="112"/>
-      <c r="C155" s="112"/>
-      <c r="D155" s="112"/>
-      <c r="E155" s="112"/>
-      <c r="F155" s="112"/>
+      <c r="B155" s="110"/>
+      <c r="C155" s="110"/>
+      <c r="D155" s="110"/>
+      <c r="E155" s="110"/>
+      <c r="F155" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -18219,6 +20224,211 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1F18AA-C4D7-4F5F-B830-6AEF3D376935}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A2" s="129" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A3" s="70" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="70" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D3" s="71"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A4" s="70" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="70" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D4" s="71"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A5" s="70" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="70" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D5" s="71"/>
+    </row>
+    <row r="6" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A6" s="70" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="70" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D6" s="71"/>
+    </row>
+    <row r="7" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A7" s="70" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="70" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D7" s="71"/>
+    </row>
+    <row r="8" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A8" s="70" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="70" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D8" s="71"/>
+    </row>
+    <row r="9" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A9" s="70" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="70" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D9" s="71"/>
+    </row>
+    <row r="10" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A10" s="70" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="70" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D10" s="71"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A11" s="70" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="70" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D11" s="71"/>
+    </row>
+    <row r="12" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A12" s="70" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="70" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D12" s="71"/>
+    </row>
+    <row r="13" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A13" s="70" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="70" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D13" s="71"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A14" s="70" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="70" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D14" s="71"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A15" s="70" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="70" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D15" s="71"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A16" s="70" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="70" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D16" s="71"/>
+    </row>
+    <row r="17" spans="1:4" ht="24.2" thickBot="1">
+      <c r="A17" s="70" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="70" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D17" s="71"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.55" thickBot="1">
+      <c r="A18" s="70" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FF4508-C611-41EB-AFA9-F454F874D8DB}">
   <dimension ref="A1:C84"/>
   <sheetViews>
@@ -18234,11 +20444,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>1337</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="27.95">
       <c r="A2" s="51" t="s">
@@ -18316,10 +20526,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="111" t="s">
         <v>1358</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="111"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="64" t="s">
@@ -18402,20 +20612,20 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="110" t="s">
         <v>1378</v>
       </c>
-      <c r="B22" s="112"/>
+      <c r="B22" s="110"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
     </row>
     <row r="25" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="111" t="s">
         <v>1379</v>
       </c>
-      <c r="B25" s="108"/>
+      <c r="B25" s="111"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="62" t="s">
@@ -18442,10 +20652,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="111" t="s">
         <v>1385</v>
       </c>
-      <c r="B38" s="108"/>
+      <c r="B38" s="111"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="64" t="s">
@@ -18528,10 +20738,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A51" s="111" t="s">
+      <c r="A51" s="112" t="s">
         <v>1405</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="112"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="62" t="s">
@@ -18810,7 +21020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FEBBE8-F5C3-472A-96C2-04541B8277EE}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -18833,28 +21043,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="121" t="s">
         <v>1470</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="123" t="s">
         <v>645</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121" t="s">
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123" t="s">
         <v>1471</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123" t="s">
         <v>1472</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="123" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="120"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="67" t="s">
         <v>1474</v>
       </c>
@@ -18873,8 +21083,8 @@
       <c r="G2" s="67" t="s">
         <v>1476</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" ht="27.95">
       <c r="A3" s="68" t="s">
@@ -19408,98 +21618,6 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFE2340-CE8F-4475-A4A2-E5046722398C}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A1" s="122" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B1" s="100"/>
-    </row>
-    <row r="2" spans="1:2" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B2" s="123"/>
-    </row>
-    <row r="3" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A3" s="69" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A4" s="70" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A5" s="70" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A6" s="70" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A7" s="70" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24.2" thickBot="1">
-      <c r="A8" s="70" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A9" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19636,6 +21754,98 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFE2340-CE8F-4475-A4A2-E5046722398C}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1" s="101"/>
+    </row>
+    <row r="2" spans="1:2" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A2" s="125" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B2" s="125"/>
+    </row>
+    <row r="3" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A3" s="69" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A4" s="70" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A5" s="70" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A6" s="70" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A7" s="70" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.2" thickBot="1">
+      <c r="A8" s="70" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.55" thickBot="1">
+      <c r="A9" s="70" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC1308C-C109-4B0B-A122-0B5F8565F8F2}">
   <dimension ref="A1:D64"/>
   <sheetViews>
@@ -19649,20 +21859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>1540</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
     </row>
     <row r="2" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>1541</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3" spans="1:4" ht="14.55" thickBot="1">
       <c r="A3" s="6" t="s">
@@ -20016,12 +22226,12 @@
     </row>
     <row r="28" spans="1:4" ht="14.55" thickBot="1"/>
     <row r="29" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="126" t="s">
         <v>1641</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
     </row>
     <row r="30" spans="1:4" ht="14.55" thickBot="1">
       <c r="A30" s="69" t="s">
@@ -20375,12 +22585,12 @@
     </row>
     <row r="56" spans="1:4" ht="14.55" thickBot="1"/>
     <row r="57" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="86" t="s">
         <v>1728</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
     </row>
     <row r="58" spans="1:4" ht="14.55" thickBot="1">
       <c r="A58" s="6" t="s">
@@ -20467,12 +22677,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="97" t="s">
         <v>1746</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20492,7 +22702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A780C640-B876-4A80-967B-50D27222DDE7}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -20510,7 +22720,7 @@
       <c r="A1" s="96" t="s">
         <v>1747</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -20604,19 +22814,19 @@
       <c r="A13" s="8" t="s">
         <v>1770</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="82" t="s">
         <v>1771</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
-      <c r="B14" s="81"/>
+      <c r="B14" s="83"/>
     </row>
     <row r="15" spans="1:2" ht="14.55" thickBot="1">
       <c r="A15" s="19" t="s">
         <v>1772</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20630,7 +22840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41A8D67-3B15-43CE-885A-3339A121AE06}">
   <dimension ref="A1:AC31"/>
   <sheetViews>
@@ -20729,37 +22939,37 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>1795</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="74" t="s">
@@ -20801,7 +23011,7 @@
       <c r="M3" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N3" s="125"/>
+      <c r="N3" s="127"/>
       <c r="O3" s="75" t="s">
         <v>1274</v>
       </c>
@@ -20814,12 +23024,12 @@
       <c r="R3" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S3" s="125"/>
+      <c r="S3" s="127"/>
       <c r="T3" s="75"/>
       <c r="U3" s="75"/>
       <c r="V3" s="75"/>
       <c r="W3" s="75"/>
-      <c r="X3" s="125"/>
+      <c r="X3" s="127"/>
       <c r="Y3" s="75"/>
       <c r="Z3" s="75"/>
       <c r="AA3" s="75"/>
@@ -20866,7 +23076,7 @@
       <c r="M4" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N4" s="125"/>
+      <c r="N4" s="127"/>
       <c r="O4" s="75" t="s">
         <v>1274</v>
       </c>
@@ -20879,12 +23089,12 @@
       <c r="R4" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S4" s="125"/>
+      <c r="S4" s="127"/>
       <c r="T4" s="75"/>
       <c r="U4" s="75"/>
       <c r="V4" s="75"/>
       <c r="W4" s="75"/>
-      <c r="X4" s="125"/>
+      <c r="X4" s="127"/>
       <c r="Y4" s="75"/>
       <c r="Z4" s="75"/>
       <c r="AA4" s="75"/>
@@ -20931,7 +23141,7 @@
       <c r="M5" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N5" s="125"/>
+      <c r="N5" s="127"/>
       <c r="O5" s="75" t="s">
         <v>1274</v>
       </c>
@@ -20944,12 +23154,12 @@
       <c r="R5" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S5" s="125"/>
+      <c r="S5" s="127"/>
       <c r="T5" s="75"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
       <c r="W5" s="75"/>
-      <c r="X5" s="125"/>
+      <c r="X5" s="127"/>
       <c r="Y5" s="75"/>
       <c r="Z5" s="75"/>
       <c r="AA5" s="75"/>
@@ -20996,7 +23206,7 @@
       <c r="M6" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N6" s="125"/>
+      <c r="N6" s="127"/>
       <c r="O6" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21009,12 +23219,12 @@
       <c r="R6" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S6" s="125"/>
+      <c r="S6" s="127"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
       <c r="V6" s="75"/>
       <c r="W6" s="75"/>
-      <c r="X6" s="125"/>
+      <c r="X6" s="127"/>
       <c r="Y6" s="75"/>
       <c r="Z6" s="75"/>
       <c r="AA6" s="75"/>
@@ -21061,7 +23271,7 @@
       <c r="M7" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N7" s="125"/>
+      <c r="N7" s="127"/>
       <c r="O7" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21074,12 +23284,12 @@
       <c r="R7" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S7" s="125"/>
+      <c r="S7" s="127"/>
       <c r="T7" s="75"/>
       <c r="U7" s="75"/>
       <c r="V7" s="75"/>
       <c r="W7" s="75"/>
-      <c r="X7" s="125"/>
+      <c r="X7" s="127"/>
       <c r="Y7" s="75"/>
       <c r="Z7" s="75"/>
       <c r="AA7" s="75"/>
@@ -21126,7 +23336,7 @@
       <c r="M8" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N8" s="125"/>
+      <c r="N8" s="127"/>
       <c r="O8" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21139,12 +23349,12 @@
       <c r="R8" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S8" s="125"/>
+      <c r="S8" s="127"/>
       <c r="T8" s="75"/>
       <c r="U8" s="75"/>
       <c r="V8" s="75"/>
       <c r="W8" s="75"/>
-      <c r="X8" s="125"/>
+      <c r="X8" s="127"/>
       <c r="Y8" s="75"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="75"/>
@@ -21189,17 +23399,17 @@
       <c r="M9" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N9" s="125"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="75"/>
       <c r="P9" s="75"/>
       <c r="Q9" s="75"/>
       <c r="R9" s="75"/>
-      <c r="S9" s="125"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="75"/>
       <c r="U9" s="75"/>
       <c r="V9" s="75"/>
       <c r="W9" s="75"/>
-      <c r="X9" s="125"/>
+      <c r="X9" s="127"/>
       <c r="Y9" s="75"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="75"/>
@@ -21244,17 +23454,17 @@
       <c r="M10" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N10" s="125"/>
+      <c r="N10" s="127"/>
       <c r="O10" s="75"/>
       <c r="P10" s="75"/>
       <c r="Q10" s="75"/>
       <c r="R10" s="75"/>
-      <c r="S10" s="125"/>
+      <c r="S10" s="127"/>
       <c r="T10" s="75"/>
       <c r="U10" s="75"/>
       <c r="V10" s="75"/>
       <c r="W10" s="75"/>
-      <c r="X10" s="125"/>
+      <c r="X10" s="127"/>
       <c r="Y10" s="75"/>
       <c r="Z10" s="75"/>
       <c r="AA10" s="75"/>
@@ -21301,7 +23511,7 @@
       <c r="M11" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N11" s="125"/>
+      <c r="N11" s="127"/>
       <c r="O11" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21314,12 +23524,12 @@
       <c r="R11" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S11" s="125"/>
+      <c r="S11" s="127"/>
       <c r="T11" s="75"/>
       <c r="U11" s="75"/>
       <c r="V11" s="75"/>
       <c r="W11" s="75"/>
-      <c r="X11" s="125"/>
+      <c r="X11" s="127"/>
       <c r="Y11" s="75"/>
       <c r="Z11" s="75"/>
       <c r="AA11" s="75"/>
@@ -21366,7 +23576,7 @@
       <c r="M12" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N12" s="125"/>
+      <c r="N12" s="127"/>
       <c r="O12" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21379,12 +23589,12 @@
       <c r="R12" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S12" s="125"/>
+      <c r="S12" s="127"/>
       <c r="T12" s="75"/>
       <c r="U12" s="75"/>
       <c r="V12" s="75"/>
       <c r="W12" s="75"/>
-      <c r="X12" s="125"/>
+      <c r="X12" s="127"/>
       <c r="Y12" s="75"/>
       <c r="Z12" s="75"/>
       <c r="AA12" s="75"/>
@@ -21431,7 +23641,7 @@
       <c r="M13" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N13" s="125"/>
+      <c r="N13" s="127"/>
       <c r="O13" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21444,7 +23654,7 @@
       <c r="R13" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S13" s="125"/>
+      <c r="S13" s="127"/>
       <c r="T13" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21457,7 +23667,7 @@
       <c r="W13" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="X13" s="125"/>
+      <c r="X13" s="127"/>
       <c r="Y13" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21514,7 +23724,7 @@
       <c r="M14" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N14" s="125"/>
+      <c r="N14" s="127"/>
       <c r="O14" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21527,7 +23737,7 @@
       <c r="R14" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S14" s="125"/>
+      <c r="S14" s="127"/>
       <c r="T14" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21540,7 +23750,7 @@
       <c r="W14" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="X14" s="125"/>
+      <c r="X14" s="127"/>
       <c r="Y14" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21597,7 +23807,7 @@
       <c r="M15" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N15" s="125"/>
+      <c r="N15" s="127"/>
       <c r="O15" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21610,12 +23820,12 @@
       <c r="R15" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S15" s="125"/>
+      <c r="S15" s="127"/>
       <c r="T15" s="75"/>
       <c r="U15" s="75"/>
       <c r="V15" s="75"/>
       <c r="W15" s="75"/>
-      <c r="X15" s="125"/>
+      <c r="X15" s="127"/>
       <c r="Y15" s="75"/>
       <c r="Z15" s="75"/>
       <c r="AA15" s="75"/>
@@ -21623,37 +23833,37 @@
       <c r="AC15" s="75"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="128" t="s">
         <v>1796</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="74" t="s">
@@ -21691,7 +23901,7 @@
       <c r="M17" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N17" s="125"/>
+      <c r="N17" s="127"/>
       <c r="O17" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21704,12 +23914,12 @@
       <c r="R17" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S17" s="125"/>
+      <c r="S17" s="127"/>
       <c r="T17" s="75"/>
       <c r="U17" s="75"/>
       <c r="V17" s="75"/>
       <c r="W17" s="75"/>
-      <c r="X17" s="125"/>
+      <c r="X17" s="127"/>
       <c r="Y17" s="75"/>
       <c r="Z17" s="75"/>
       <c r="AA17" s="75"/>
@@ -21752,7 +23962,7 @@
       <c r="M18" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N18" s="125"/>
+      <c r="N18" s="127"/>
       <c r="O18" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21765,12 +23975,12 @@
       <c r="R18" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S18" s="125"/>
+      <c r="S18" s="127"/>
       <c r="T18" s="75"/>
       <c r="U18" s="75"/>
       <c r="V18" s="75"/>
       <c r="W18" s="75"/>
-      <c r="X18" s="125"/>
+      <c r="X18" s="127"/>
       <c r="Y18" s="75"/>
       <c r="Z18" s="75"/>
       <c r="AA18" s="75"/>
@@ -21813,7 +24023,7 @@
       <c r="M19" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N19" s="125"/>
+      <c r="N19" s="127"/>
       <c r="O19" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21826,12 +24036,12 @@
       <c r="R19" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S19" s="125"/>
+      <c r="S19" s="127"/>
       <c r="T19" s="75"/>
       <c r="U19" s="75"/>
       <c r="V19" s="75"/>
       <c r="W19" s="75"/>
-      <c r="X19" s="125"/>
+      <c r="X19" s="127"/>
       <c r="Y19" s="75"/>
       <c r="Z19" s="75"/>
       <c r="AA19" s="75"/>
@@ -21874,7 +24084,7 @@
       <c r="M20" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="N20" s="125"/>
+      <c r="N20" s="127"/>
       <c r="O20" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21887,12 +24097,12 @@
       <c r="R20" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="S20" s="125"/>
+      <c r="S20" s="127"/>
       <c r="T20" s="75"/>
       <c r="U20" s="75"/>
       <c r="V20" s="75"/>
       <c r="W20" s="75"/>
-      <c r="X20" s="125"/>
+      <c r="X20" s="127"/>
       <c r="Y20" s="75"/>
       <c r="Z20" s="75"/>
       <c r="AA20" s="75"/>
@@ -21900,37 +24110,37 @@
       <c r="AC20" s="75"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="128" t="s">
         <v>1797</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="126"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="74" t="s">
@@ -21950,12 +24160,12 @@
         <v>1274</v>
       </c>
       <c r="M22" s="75"/>
-      <c r="N22" s="125"/>
+      <c r="N22" s="127"/>
       <c r="O22" s="75"/>
       <c r="P22" s="75"/>
       <c r="Q22" s="75"/>
       <c r="R22" s="75"/>
-      <c r="S22" s="125"/>
+      <c r="S22" s="127"/>
       <c r="T22" s="75" t="s">
         <v>1274</v>
       </c>
@@ -21964,7 +24174,7 @@
       </c>
       <c r="V22" s="75"/>
       <c r="W22" s="75"/>
-      <c r="X22" s="125"/>
+      <c r="X22" s="127"/>
       <c r="Y22" s="75"/>
       <c r="Z22" s="75"/>
       <c r="AA22" s="75"/>
@@ -21989,12 +24199,12 @@
         <v>1274</v>
       </c>
       <c r="M23" s="75"/>
-      <c r="N23" s="125"/>
+      <c r="N23" s="127"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="125"/>
+      <c r="S23" s="127"/>
       <c r="T23" s="75" t="s">
         <v>1274</v>
       </c>
@@ -22003,7 +24213,7 @@
       </c>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
-      <c r="X23" s="125"/>
+      <c r="X23" s="127"/>
       <c r="Y23" s="75"/>
       <c r="Z23" s="75"/>
       <c r="AA23" s="75"/>
@@ -22048,19 +24258,19 @@
         <v>1274</v>
       </c>
       <c r="M24" s="75"/>
-      <c r="N24" s="125"/>
+      <c r="N24" s="127"/>
       <c r="O24" s="75"/>
       <c r="P24" s="75"/>
       <c r="Q24" s="75"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="125"/>
+      <c r="S24" s="127"/>
       <c r="T24" s="75"/>
       <c r="U24" s="75"/>
       <c r="V24" s="75" t="s">
         <v>1274</v>
       </c>
       <c r="W24" s="75"/>
-      <c r="X24" s="125"/>
+      <c r="X24" s="127"/>
       <c r="Y24" s="75"/>
       <c r="Z24" s="75"/>
       <c r="AA24" s="75"/>
@@ -22105,19 +24315,19 @@
         <v>1274</v>
       </c>
       <c r="M25" s="75"/>
-      <c r="N25" s="125"/>
+      <c r="N25" s="127"/>
       <c r="O25" s="75"/>
       <c r="P25" s="75"/>
       <c r="Q25" s="75"/>
       <c r="R25" s="75"/>
-      <c r="S25" s="125"/>
+      <c r="S25" s="127"/>
       <c r="T25" s="75"/>
       <c r="U25" s="75"/>
       <c r="V25" s="75"/>
       <c r="W25" s="75" t="s">
         <v>1274</v>
       </c>
-      <c r="X25" s="125"/>
+      <c r="X25" s="127"/>
       <c r="Y25" s="75"/>
       <c r="Z25" s="75"/>
       <c r="AA25" s="75"/>
@@ -22125,37 +24335,37 @@
       <c r="AC25" s="75"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="128" t="s">
         <v>1798</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
     </row>
     <row r="27" spans="1:29" ht="15.05">
       <c r="A27" s="74" t="s">
@@ -22175,17 +24385,17 @@
         <v>1274</v>
       </c>
       <c r="M27" s="75"/>
-      <c r="N27" s="125"/>
+      <c r="N27" s="127"/>
       <c r="O27" s="75"/>
       <c r="P27" s="75"/>
       <c r="Q27" s="75"/>
       <c r="R27" s="75"/>
-      <c r="S27" s="125"/>
+      <c r="S27" s="127"/>
       <c r="T27" s="75"/>
       <c r="U27" s="75"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
-      <c r="X27" s="125"/>
+      <c r="X27" s="127"/>
       <c r="Y27" s="75" t="s">
         <v>1274</v>
       </c>
@@ -22214,17 +24424,17 @@
         <v>1274</v>
       </c>
       <c r="M28" s="75"/>
-      <c r="N28" s="125"/>
+      <c r="N28" s="127"/>
       <c r="O28" s="75"/>
       <c r="P28" s="75"/>
       <c r="Q28" s="75"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="125"/>
+      <c r="S28" s="127"/>
       <c r="T28" s="75"/>
       <c r="U28" s="75"/>
       <c r="V28" s="75"/>
       <c r="W28" s="75"/>
-      <c r="X28" s="125"/>
+      <c r="X28" s="127"/>
       <c r="Y28" s="75" t="s">
         <v>1274</v>
       </c>
@@ -22253,17 +24463,17 @@
         <v>1274</v>
       </c>
       <c r="M29" s="75"/>
-      <c r="N29" s="125"/>
+      <c r="N29" s="127"/>
       <c r="O29" s="75"/>
       <c r="P29" s="75"/>
       <c r="Q29" s="75"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="125"/>
+      <c r="S29" s="127"/>
       <c r="T29" s="75"/>
       <c r="U29" s="75"/>
       <c r="V29" s="75"/>
       <c r="W29" s="75"/>
-      <c r="X29" s="125"/>
+      <c r="X29" s="127"/>
       <c r="Y29" s="75"/>
       <c r="Z29" s="75"/>
       <c r="AA29" s="75" t="s">
@@ -22294,17 +24504,17 @@
         <v>1274</v>
       </c>
       <c r="M30" s="75"/>
-      <c r="N30" s="125"/>
+      <c r="N30" s="127"/>
       <c r="O30" s="75"/>
       <c r="P30" s="75"/>
       <c r="Q30" s="75"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="125"/>
+      <c r="S30" s="127"/>
       <c r="T30" s="75"/>
       <c r="U30" s="75"/>
       <c r="V30" s="75"/>
       <c r="W30" s="75"/>
-      <c r="X30" s="125"/>
+      <c r="X30" s="127"/>
       <c r="Y30" s="75"/>
       <c r="Z30" s="75"/>
       <c r="AA30" s="75" t="s">
@@ -22335,17 +24545,17 @@
         <v>1274</v>
       </c>
       <c r="M31" s="75"/>
-      <c r="N31" s="125"/>
+      <c r="N31" s="127"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
       <c r="Q31" s="75"/>
       <c r="R31" s="75"/>
-      <c r="S31" s="125"/>
+      <c r="S31" s="127"/>
       <c r="T31" s="75"/>
       <c r="U31" s="75"/>
       <c r="V31" s="75"/>
       <c r="W31" s="75"/>
-      <c r="X31" s="125"/>
+      <c r="X31" s="127"/>
       <c r="Y31" s="75"/>
       <c r="Z31" s="75"/>
       <c r="AA31" s="75" t="s">
@@ -22381,11 +24591,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC84A3-BAAD-4606-A248-1B3C919BBD85}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -22447,23 +24657,23 @@
       <c r="C5" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="F10" s="127"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="F11" s="127"/>
+      <c r="F11" s="79"/>
     </row>
     <row r="19" spans="6:6" ht="14.55" thickBot="1"/>
     <row r="20" spans="6:6" ht="22.6">
-      <c r="F20" s="128"/>
+      <c r="F20" s="80"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="127"/>
+      <c r="F21" s="79"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="127"/>
+      <c r="F22" s="79"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="127"/>
+      <c r="F23" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22502,10 +24712,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="85"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -22613,11 +24823,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.55" thickBot="1"/>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:3" ht="28.5" thickBot="1">
       <c r="A3" s="6" t="s">
@@ -22631,10 +24841,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="82" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -22642,15 +24852,15 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
@@ -22713,10 +24923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -22763,28 +24973,28 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="88"/>
     </row>
     <row r="10" spans="1:2" ht="40.299999999999997" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="86"/>
+      <c r="B10" s="88"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="88"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22819,11 +25029,11 @@
       <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="E1" s="88" t="s">
+      <c r="C1" s="89"/>
+      <c r="E1" s="90" t="s">
         <v>147</v>
       </c>
       <c r="F1" s="21" t="s">
@@ -22831,7 +25041,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -22840,52 +25050,52 @@
       <c r="C2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="89"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="89"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="21" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="89"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="21" t="s">
         <v>119</v>
       </c>
@@ -22894,7 +25104,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="89"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="21" t="s">
         <v>120</v>
       </c>
@@ -22903,7 +25113,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="89"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="21" t="s">
         <v>121</v>
       </c>
@@ -22912,7 +25122,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="89"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="21" t="s">
         <v>122</v>
       </c>
@@ -22921,7 +25131,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="89"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="21" t="s">
         <v>123</v>
       </c>
@@ -22930,7 +25140,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="89"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="21" t="s">
         <v>124</v>
       </c>
@@ -22939,7 +25149,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="89"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="21" t="s">
         <v>125</v>
       </c>
@@ -22948,7 +25158,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="89"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="21" t="s">
         <v>126</v>
       </c>
@@ -22957,7 +25167,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="89"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="21" t="s">
         <v>127</v>
       </c>
@@ -22966,7 +25176,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="89"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="21" t="s">
         <v>128</v>
       </c>
@@ -22975,7 +25185,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="89"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="21" t="s">
         <v>129</v>
       </c>
@@ -22984,7 +25194,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="90"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="21" t="s">
         <v>130</v>
       </c>
@@ -23039,10 +25249,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>339</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -23050,24 +25260,24 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="93" t="s">
         <v>337</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -23075,31 +25285,31 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="93" t="s">
         <v>335</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -23107,24 +25317,24 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="93" t="s">
         <v>333</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -23132,31 +25342,31 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="19" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="93" t="s">
         <v>330</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -23164,17 +25374,17 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="93" t="s">
         <v>328</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -23182,24 +25392,24 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="93" t="s">
         <v>326</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -23207,24 +25417,24 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="93" t="s">
         <v>324</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -23232,24 +25442,24 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="93" t="s">
         <v>323</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="93" t="s">
         <v>322</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -23257,38 +25467,38 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="93" t="s">
         <v>320</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -23296,17 +25506,17 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="93" t="s">
         <v>318</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -23314,24 +25524,24 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="93" t="s">
         <v>317</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="93" t="s">
         <v>316</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -23339,17 +25549,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="93" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="93" t="s">
         <v>314</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -23357,31 +25567,31 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="93"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="93" t="s">
         <v>312</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -23389,31 +25599,31 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="93"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="93"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="93" t="s">
         <v>310</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -23421,24 +25631,24 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="93"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="93" t="s">
         <v>308</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -23446,24 +25656,24 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="93"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="93" t="s">
         <v>306</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -23471,24 +25681,24 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="93"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="95"/>
       <c r="C56" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="93" t="s">
         <v>303</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -23496,24 +25706,24 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="93"/>
-      <c r="B58" s="93"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="93" t="s">
         <v>299</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -23521,39 +25731,39 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="93"/>
-      <c r="B61" s="93"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="94"/>
       <c r="C62" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
     </row>
     <row r="67" spans="1:3" ht="14.55" thickBot="1">
       <c r="A67" s="96" t="s">
@@ -23574,10 +25784,10 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="93" t="s">
         <v>294</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -23585,24 +25795,24 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="93"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -23610,24 +25820,24 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="93" t="s">
         <v>290</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -23635,24 +25845,24 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="93"/>
-      <c r="B76" s="93"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="95"/>
       <c r="C77" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="93" t="s">
         <v>287</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -23660,52 +25870,52 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="93"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="94"/>
       <c r="C79" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="93"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="94"/>
       <c r="C80" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="93"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="93"/>
-      <c r="B82" s="93"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="93"/>
-      <c r="B83" s="93"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="94"/>
       <c r="C83" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A84" s="94"/>
-      <c r="B84" s="94"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="95"/>
       <c r="C84" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="92" t="s">
+      <c r="A85" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="93" t="s">
         <v>285</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -23713,52 +25923,52 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="93"/>
-      <c r="B86" s="93"/>
+      <c r="A86" s="94"/>
+      <c r="B86" s="94"/>
       <c r="C86" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="93"/>
-      <c r="B87" s="93"/>
+      <c r="A87" s="94"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="93"/>
-      <c r="B88" s="93"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="94"/>
       <c r="C88" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="93"/>
-      <c r="B89" s="93"/>
+      <c r="A89" s="94"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="93"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="94"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A91" s="94"/>
-      <c r="B91" s="94"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="95"/>
       <c r="C91" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="92" t="s">
+      <c r="A92" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="93" t="s">
         <v>283</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -23766,24 +25976,24 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="93"/>
-      <c r="B93" s="93"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="94"/>
       <c r="C93" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="94"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="95"/>
       <c r="C94" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="92" t="s">
+      <c r="A95" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="93" t="s">
         <v>281</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -23791,17 +26001,17 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A96" s="94"/>
-      <c r="B96" s="94"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="95"/>
       <c r="C96" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="92" t="s">
+      <c r="A97" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="93" t="s">
         <v>279</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -23809,66 +26019,66 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="93"/>
-      <c r="B98" s="93"/>
+      <c r="A98" s="94"/>
+      <c r="B98" s="94"/>
       <c r="C98" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="93"/>
-      <c r="B99" s="93"/>
+      <c r="A99" s="94"/>
+      <c r="B99" s="94"/>
       <c r="C99" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="93"/>
-      <c r="B100" s="93"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="94"/>
       <c r="C100" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="93"/>
-      <c r="B101" s="93"/>
+      <c r="A101" s="94"/>
+      <c r="B101" s="94"/>
       <c r="C101" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="93"/>
-      <c r="B102" s="93"/>
+      <c r="A102" s="94"/>
+      <c r="B102" s="94"/>
       <c r="C102" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="93"/>
-      <c r="B103" s="93"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="94"/>
       <c r="C103" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="93"/>
-      <c r="B104" s="93"/>
+      <c r="A104" s="94"/>
+      <c r="B104" s="94"/>
       <c r="C104" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A105" s="94"/>
-      <c r="B105" s="94"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="95"/>
       <c r="C105" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="92" t="s">
+      <c r="A106" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="B106" s="92" t="s">
+      <c r="B106" s="93" t="s">
         <v>277</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -23876,38 +26086,38 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="93"/>
-      <c r="B107" s="93"/>
+      <c r="A107" s="94"/>
+      <c r="B107" s="94"/>
       <c r="C107" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="93"/>
-      <c r="B108" s="93"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="94"/>
       <c r="C108" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="93"/>
-      <c r="B109" s="93"/>
+      <c r="A109" s="94"/>
+      <c r="B109" s="94"/>
       <c r="C109" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A110" s="94"/>
-      <c r="B110" s="94"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="95"/>
       <c r="C110" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="92" t="s">
+      <c r="A111" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="B111" s="92" t="s">
+      <c r="B111" s="93" t="s">
         <v>275</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -23915,45 +26125,45 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="93"/>
-      <c r="B112" s="93"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="94"/>
       <c r="C112" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="93"/>
-      <c r="B113" s="93"/>
+      <c r="A113" s="94"/>
+      <c r="B113" s="94"/>
       <c r="C113" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="93"/>
-      <c r="B114" s="93"/>
+      <c r="A114" s="94"/>
+      <c r="B114" s="94"/>
       <c r="C114" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="93"/>
-      <c r="B115" s="93"/>
+      <c r="A115" s="94"/>
+      <c r="B115" s="94"/>
       <c r="C115" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A116" s="94"/>
-      <c r="B116" s="94"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="95"/>
       <c r="C116" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="92" t="s">
+      <c r="A117" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="B117" s="92" t="s">
+      <c r="B117" s="93" t="s">
         <v>273</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -23961,45 +26171,45 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="93"/>
-      <c r="B118" s="93"/>
+      <c r="A118" s="94"/>
+      <c r="B118" s="94"/>
       <c r="C118" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="93"/>
-      <c r="B119" s="93"/>
+      <c r="A119" s="94"/>
+      <c r="B119" s="94"/>
       <c r="C119" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="93"/>
-      <c r="B120" s="93"/>
+      <c r="A120" s="94"/>
+      <c r="B120" s="94"/>
       <c r="C120" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="93"/>
-      <c r="B121" s="93"/>
+      <c r="A121" s="94"/>
+      <c r="B121" s="94"/>
       <c r="C121" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A122" s="94"/>
-      <c r="B122" s="94"/>
+      <c r="A122" s="95"/>
+      <c r="B122" s="95"/>
       <c r="C122" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="92" t="s">
+      <c r="A123" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B123" s="92" t="s">
+      <c r="B123" s="93" t="s">
         <v>271</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -24007,52 +26217,52 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="93"/>
-      <c r="B124" s="93"/>
+      <c r="A124" s="94"/>
+      <c r="B124" s="94"/>
       <c r="C124" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="93"/>
-      <c r="B125" s="93"/>
+      <c r="A125" s="94"/>
+      <c r="B125" s="94"/>
       <c r="C125" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="93"/>
-      <c r="B126" s="93"/>
+      <c r="A126" s="94"/>
+      <c r="B126" s="94"/>
       <c r="C126" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="93"/>
-      <c r="B127" s="93"/>
+      <c r="A127" s="94"/>
+      <c r="B127" s="94"/>
       <c r="C127" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="93"/>
-      <c r="B128" s="93"/>
+      <c r="A128" s="94"/>
+      <c r="B128" s="94"/>
       <c r="C128" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A129" s="94"/>
-      <c r="B129" s="94"/>
+      <c r="A129" s="95"/>
+      <c r="B129" s="95"/>
       <c r="C129" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="92" t="s">
+      <c r="A130" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="92" t="s">
+      <c r="B130" s="93" t="s">
         <v>269</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -24060,52 +26270,52 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="93"/>
-      <c r="B131" s="93"/>
+      <c r="A131" s="94"/>
+      <c r="B131" s="94"/>
       <c r="C131" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="93"/>
-      <c r="B132" s="93"/>
+      <c r="A132" s="94"/>
+      <c r="B132" s="94"/>
       <c r="C132" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="93"/>
-      <c r="B133" s="93"/>
+      <c r="A133" s="94"/>
+      <c r="B133" s="94"/>
       <c r="C133" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="93"/>
-      <c r="B134" s="93"/>
+      <c r="A134" s="94"/>
+      <c r="B134" s="94"/>
       <c r="C134" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="93"/>
-      <c r="B135" s="93"/>
+      <c r="A135" s="94"/>
+      <c r="B135" s="94"/>
       <c r="C135" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A136" s="94"/>
-      <c r="B136" s="94"/>
+      <c r="A136" s="95"/>
+      <c r="B136" s="95"/>
       <c r="C136" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="92" t="s">
+      <c r="A137" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="B137" s="92" t="s">
+      <c r="B137" s="93" t="s">
         <v>267</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -24113,59 +26323,59 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="93"/>
-      <c r="B138" s="93"/>
+      <c r="A138" s="94"/>
+      <c r="B138" s="94"/>
       <c r="C138" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="93"/>
-      <c r="B139" s="93"/>
+      <c r="A139" s="94"/>
+      <c r="B139" s="94"/>
       <c r="C139" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="93"/>
-      <c r="B140" s="93"/>
+      <c r="A140" s="94"/>
+      <c r="B140" s="94"/>
       <c r="C140" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="93"/>
-      <c r="B141" s="93"/>
+      <c r="A141" s="94"/>
+      <c r="B141" s="94"/>
       <c r="C141" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="93"/>
-      <c r="B142" s="93"/>
+      <c r="A142" s="94"/>
+      <c r="B142" s="94"/>
       <c r="C142" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="93"/>
-      <c r="B143" s="93"/>
+      <c r="A143" s="94"/>
+      <c r="B143" s="94"/>
       <c r="C143" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A144" s="94"/>
-      <c r="B144" s="94"/>
+      <c r="A144" s="95"/>
+      <c r="B144" s="95"/>
       <c r="C144" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="92" t="s">
+      <c r="A145" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="B145" s="92" t="s">
+      <c r="B145" s="93" t="s">
         <v>265</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -24173,52 +26383,52 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="93"/>
-      <c r="B146" s="93"/>
+      <c r="A146" s="94"/>
+      <c r="B146" s="94"/>
       <c r="C146" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="93"/>
-      <c r="B147" s="93"/>
+      <c r="A147" s="94"/>
+      <c r="B147" s="94"/>
       <c r="C147" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="93"/>
-      <c r="B148" s="93"/>
+      <c r="A148" s="94"/>
+      <c r="B148" s="94"/>
       <c r="C148" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="93"/>
-      <c r="B149" s="93"/>
+      <c r="A149" s="94"/>
+      <c r="B149" s="94"/>
       <c r="C149" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="93"/>
-      <c r="B150" s="93"/>
+      <c r="A150" s="94"/>
+      <c r="B150" s="94"/>
       <c r="C150" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A151" s="94"/>
-      <c r="B151" s="94"/>
+      <c r="A151" s="95"/>
+      <c r="B151" s="95"/>
       <c r="C151" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="92" t="s">
+      <c r="A152" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="B152" s="92" t="s">
+      <c r="B152" s="93" t="s">
         <v>263</v>
       </c>
       <c r="C152" s="8" t="s">
@@ -24226,52 +26436,52 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="93"/>
-      <c r="B153" s="93"/>
+      <c r="A153" s="94"/>
+      <c r="B153" s="94"/>
       <c r="C153" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="93"/>
-      <c r="B154" s="93"/>
+      <c r="A154" s="94"/>
+      <c r="B154" s="94"/>
       <c r="C154" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="93"/>
-      <c r="B155" s="93"/>
+      <c r="A155" s="94"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="93"/>
-      <c r="B156" s="93"/>
+      <c r="A156" s="94"/>
+      <c r="B156" s="94"/>
       <c r="C156" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="93"/>
-      <c r="B157" s="93"/>
+      <c r="A157" s="94"/>
+      <c r="B157" s="94"/>
       <c r="C157" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A158" s="94"/>
-      <c r="B158" s="94"/>
+      <c r="A158" s="95"/>
+      <c r="B158" s="95"/>
       <c r="C158" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="92" t="s">
+      <c r="A159" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="B159" s="92" t="s">
+      <c r="B159" s="93" t="s">
         <v>261</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -24279,45 +26489,45 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="93"/>
-      <c r="B160" s="93"/>
+      <c r="A160" s="94"/>
+      <c r="B160" s="94"/>
       <c r="C160" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="93"/>
-      <c r="B161" s="93"/>
+      <c r="A161" s="94"/>
+      <c r="B161" s="94"/>
       <c r="C161" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="93"/>
-      <c r="B162" s="93"/>
+      <c r="A162" s="94"/>
+      <c r="B162" s="94"/>
       <c r="C162" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="93"/>
-      <c r="B163" s="93"/>
+      <c r="A163" s="94"/>
+      <c r="B163" s="94"/>
       <c r="C163" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A164" s="94"/>
-      <c r="B164" s="94"/>
+      <c r="A164" s="95"/>
+      <c r="B164" s="95"/>
       <c r="C164" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="92" t="s">
+      <c r="A165" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B165" s="92" t="s">
+      <c r="B165" s="93" t="s">
         <v>259</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -24325,52 +26535,52 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="93"/>
-      <c r="B166" s="93"/>
+      <c r="A166" s="94"/>
+      <c r="B166" s="94"/>
       <c r="C166" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="93"/>
-      <c r="B167" s="93"/>
+      <c r="A167" s="94"/>
+      <c r="B167" s="94"/>
       <c r="C167" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="93"/>
-      <c r="B168" s="93"/>
+      <c r="A168" s="94"/>
+      <c r="B168" s="94"/>
       <c r="C168" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="93"/>
-      <c r="B169" s="93"/>
+      <c r="A169" s="94"/>
+      <c r="B169" s="94"/>
       <c r="C169" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="93"/>
-      <c r="B170" s="93"/>
+      <c r="A170" s="94"/>
+      <c r="B170" s="94"/>
       <c r="C170" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A171" s="94"/>
-      <c r="B171" s="94"/>
+      <c r="A171" s="95"/>
+      <c r="B171" s="95"/>
       <c r="C171" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="92" t="s">
+      <c r="A172" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="B172" s="92" t="s">
+      <c r="B172" s="93" t="s">
         <v>257</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -24378,52 +26588,52 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="93"/>
-      <c r="B173" s="93"/>
+      <c r="A173" s="94"/>
+      <c r="B173" s="94"/>
       <c r="C173" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="93"/>
-      <c r="B174" s="93"/>
+      <c r="A174" s="94"/>
+      <c r="B174" s="94"/>
       <c r="C174" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="93"/>
-      <c r="B175" s="93"/>
+      <c r="A175" s="94"/>
+      <c r="B175" s="94"/>
       <c r="C175" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="93"/>
-      <c r="B176" s="93"/>
+      <c r="A176" s="94"/>
+      <c r="B176" s="94"/>
       <c r="C176" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="93"/>
-      <c r="B177" s="93"/>
+      <c r="A177" s="94"/>
+      <c r="B177" s="94"/>
       <c r="C177" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A178" s="94"/>
-      <c r="B178" s="94"/>
+      <c r="A178" s="95"/>
+      <c r="B178" s="95"/>
       <c r="C178" s="19" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="92" t="s">
+      <c r="A179" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="B179" s="92" t="s">
+      <c r="B179" s="93" t="s">
         <v>254</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -24431,45 +26641,45 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="93"/>
-      <c r="B180" s="93"/>
+      <c r="A180" s="94"/>
+      <c r="B180" s="94"/>
       <c r="C180" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="93"/>
-      <c r="B181" s="93"/>
+      <c r="A181" s="94"/>
+      <c r="B181" s="94"/>
       <c r="C181" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="93"/>
-      <c r="B182" s="93"/>
+      <c r="A182" s="94"/>
+      <c r="B182" s="94"/>
       <c r="C182" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="93"/>
-      <c r="B183" s="93"/>
+      <c r="A183" s="94"/>
+      <c r="B183" s="94"/>
       <c r="C183" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A184" s="94"/>
-      <c r="B184" s="94"/>
+      <c r="A184" s="95"/>
+      <c r="B184" s="95"/>
       <c r="C184" s="19" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="92" t="s">
+      <c r="A185" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="B185" s="92" t="s">
+      <c r="B185" s="93" t="s">
         <v>252</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -24477,52 +26687,52 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="93"/>
-      <c r="B186" s="93"/>
+      <c r="A186" s="94"/>
+      <c r="B186" s="94"/>
       <c r="C186" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="93"/>
-      <c r="B187" s="93"/>
+      <c r="A187" s="94"/>
+      <c r="B187" s="94"/>
       <c r="C187" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="93"/>
-      <c r="B188" s="93"/>
+      <c r="A188" s="94"/>
+      <c r="B188" s="94"/>
       <c r="C188" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="93"/>
-      <c r="B189" s="93"/>
+      <c r="A189" s="94"/>
+      <c r="B189" s="94"/>
       <c r="C189" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="93"/>
-      <c r="B190" s="93"/>
+      <c r="A190" s="94"/>
+      <c r="B190" s="94"/>
       <c r="C190" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A191" s="94"/>
-      <c r="B191" s="94"/>
+      <c r="A191" s="95"/>
+      <c r="B191" s="95"/>
       <c r="C191" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="92" t="s">
+      <c r="A192" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="B192" s="92" t="s">
+      <c r="B192" s="93" t="s">
         <v>245</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -24530,24 +26740,24 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="93"/>
-      <c r="B193" s="93"/>
+      <c r="A193" s="94"/>
+      <c r="B193" s="94"/>
       <c r="C193" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A194" s="94"/>
-      <c r="B194" s="94"/>
+      <c r="A194" s="95"/>
+      <c r="B194" s="95"/>
       <c r="C194" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="92" t="s">
+      <c r="A195" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="B195" s="92" t="s">
+      <c r="B195" s="93" t="s">
         <v>243</v>
       </c>
       <c r="C195" s="8" t="s">
@@ -24555,24 +26765,24 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="93"/>
-      <c r="B196" s="93"/>
+      <c r="A196" s="94"/>
+      <c r="B196" s="94"/>
       <c r="C196" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A197" s="94"/>
-      <c r="B197" s="94"/>
+      <c r="A197" s="95"/>
+      <c r="B197" s="95"/>
       <c r="C197" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="92" t="s">
+      <c r="A198" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="B198" s="92" t="s">
+      <c r="B198" s="93" t="s">
         <v>245</v>
       </c>
       <c r="C198" s="8" t="s">
@@ -24580,17 +26790,17 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A199" s="94"/>
-      <c r="B199" s="94"/>
+      <c r="A199" s="95"/>
+      <c r="B199" s="95"/>
       <c r="C199" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="92" t="s">
+      <c r="A200" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="B200" s="92" t="s">
+      <c r="B200" s="93" t="s">
         <v>243</v>
       </c>
       <c r="C200" s="8" t="s">
@@ -24598,18 +26808,18 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A201" s="94"/>
-      <c r="B201" s="94"/>
+      <c r="A201" s="95"/>
+      <c r="B201" s="95"/>
       <c r="C201" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A202" s="95" t="s">
+      <c r="A202" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="B202" s="95"/>
-      <c r="C202" s="95"/>
+      <c r="B202" s="97"/>
+      <c r="C202" s="97"/>
     </row>
     <row r="204" spans="1:3" ht="14.55" thickBot="1">
       <c r="A204" s="96" t="s">
@@ -24633,7 +26843,7 @@
       <c r="A206" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B206" s="92" t="s">
+      <c r="B206" s="93" t="s">
         <v>237</v>
       </c>
       <c r="C206" s="8" t="s">
@@ -24644,7 +26854,7 @@
       <c r="A207" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B207" s="93"/>
+      <c r="B207" s="94"/>
       <c r="C207" s="1" t="s">
         <v>222</v>
       </c>
@@ -24653,7 +26863,7 @@
       <c r="A208" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B208" s="93"/>
+      <c r="B208" s="94"/>
       <c r="C208" s="33" t="s">
         <v>218</v>
       </c>
@@ -24662,7 +26872,7 @@
       <c r="A209" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B209" s="93"/>
+      <c r="B209" s="94"/>
       <c r="C209" s="1" t="s">
         <v>225</v>
       </c>
@@ -24671,7 +26881,7 @@
       <c r="A210" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B210" s="93"/>
+      <c r="B210" s="94"/>
       <c r="C210" s="19" t="s">
         <v>216</v>
       </c>
@@ -24680,20 +26890,20 @@
       <c r="A211" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B211" s="93"/>
+      <c r="B211" s="94"/>
       <c r="C211" s="35"/>
     </row>
     <row r="212" spans="1:3" ht="14.55" thickBot="1">
       <c r="A212" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B212" s="93"/>
+      <c r="B212" s="94"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B213" s="92" t="s">
+      <c r="B213" s="93" t="s">
         <v>229</v>
       </c>
       <c r="C213" s="8" t="s">
@@ -24704,7 +26914,7 @@
       <c r="A214" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B214" s="93"/>
+      <c r="B214" s="94"/>
       <c r="C214" s="1" t="s">
         <v>222</v>
       </c>
@@ -24713,7 +26923,7 @@
       <c r="A215" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B215" s="93"/>
+      <c r="B215" s="94"/>
       <c r="C215" s="33" t="s">
         <v>218</v>
       </c>
@@ -24722,23 +26932,23 @@
       <c r="A216" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B216" s="93"/>
+      <c r="B216" s="94"/>
       <c r="C216" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.55" thickBot="1">
       <c r="A217" s="34"/>
-      <c r="B217" s="94"/>
+      <c r="B217" s="95"/>
       <c r="C217" s="32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="92" t="s">
+      <c r="A218" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="B218" s="92" t="s">
+      <c r="B218" s="93" t="s">
         <v>223</v>
       </c>
       <c r="C218" s="8" t="s">
@@ -24746,22 +26956,22 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="93"/>
-      <c r="B219" s="93"/>
+      <c r="A219" s="94"/>
+      <c r="B219" s="94"/>
       <c r="C219" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="93"/>
-      <c r="B220" s="93"/>
+      <c r="A220" s="94"/>
+      <c r="B220" s="94"/>
       <c r="C220" s="33" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A221" s="94"/>
-      <c r="B221" s="94"/>
+      <c r="A221" s="95"/>
+      <c r="B221" s="95"/>
       <c r="C221" s="32" t="s">
         <v>221</v>
       </c>
@@ -24770,7 +26980,7 @@
       <c r="A222" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B222" s="92" t="s">
+      <c r="B222" s="93" t="s">
         <v>219</v>
       </c>
       <c r="C222" s="31" t="s">
@@ -24781,7 +26991,7 @@
       <c r="A223" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="93"/>
+      <c r="B223" s="94"/>
       <c r="C223" s="19" t="s">
         <v>216</v>
       </c>
@@ -24790,28 +27000,28 @@
       <c r="A224" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B224" s="94"/>
+      <c r="B224" s="95"/>
     </row>
     <row r="225" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A225" s="91" t="s">
+      <c r="A225" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="B225" s="91"/>
-      <c r="C225" s="91"/>
+      <c r="B225" s="98"/>
+      <c r="C225" s="98"/>
     </row>
     <row r="226" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A226" s="91" t="s">
+      <c r="A226" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="B226" s="91"/>
-      <c r="C226" s="91"/>
+      <c r="B226" s="98"/>
+      <c r="C226" s="98"/>
     </row>
     <row r="227" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A227" s="91" t="s">
+      <c r="A227" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="B227" s="91"/>
-      <c r="C227" s="91"/>
+      <c r="B227" s="98"/>
+      <c r="C227" s="98"/>
     </row>
     <row r="229" spans="1:4" ht="14.55" thickBot="1">
       <c r="A229" s="96" t="s">
@@ -24892,10 +27102,10 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A235" s="92" t="s">
+      <c r="A235" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="B235" s="92" t="s">
+      <c r="B235" s="93" t="s">
         <v>193</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -24906,8 +27116,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A236" s="93"/>
-      <c r="B236" s="93"/>
+      <c r="A236" s="94"/>
+      <c r="B236" s="94"/>
       <c r="C236" s="7" t="s">
         <v>191</v>
       </c>
@@ -24916,8 +27126,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A237" s="94"/>
-      <c r="B237" s="94"/>
+      <c r="A237" s="95"/>
+      <c r="B237" s="95"/>
       <c r="C237" s="7" t="s">
         <v>189</v>
       </c>
@@ -24926,10 +27136,10 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A238" s="92" t="s">
+      <c r="A238" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="B238" s="92" t="s">
+      <c r="B238" s="93" t="s">
         <v>186</v>
       </c>
       <c r="C238" s="7" t="s">
@@ -24940,8 +27150,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A239" s="93"/>
-      <c r="B239" s="93"/>
+      <c r="A239" s="94"/>
+      <c r="B239" s="94"/>
       <c r="C239" s="7" t="s">
         <v>184</v>
       </c>
@@ -24950,8 +27160,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A240" s="93"/>
-      <c r="B240" s="93"/>
+      <c r="A240" s="94"/>
+      <c r="B240" s="94"/>
       <c r="C240" s="7" t="s">
         <v>182</v>
       </c>
@@ -24960,8 +27170,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A241" s="94"/>
-      <c r="B241" s="94"/>
+      <c r="A241" s="95"/>
+      <c r="B241" s="95"/>
       <c r="C241" s="7" t="s">
         <v>180</v>
       </c>
@@ -25026,13 +27236,13 @@
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="92" t="s">
+      <c r="A246" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="B246" s="92" t="s">
+      <c r="B246" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="C246" s="92" t="s">
+      <c r="C246" s="93" t="s">
         <v>165</v>
       </c>
       <c r="D246" s="8" t="s">
@@ -25040,41 +27250,41 @@
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="93"/>
-      <c r="B247" s="93"/>
-      <c r="C247" s="93"/>
+      <c r="A247" s="94"/>
+      <c r="B247" s="94"/>
+      <c r="C247" s="94"/>
       <c r="D247" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="93"/>
-      <c r="B248" s="93"/>
-      <c r="C248" s="93"/>
+      <c r="A248" s="94"/>
+      <c r="B248" s="94"/>
+      <c r="C248" s="94"/>
       <c r="D248" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="93"/>
-      <c r="B249" s="93"/>
-      <c r="C249" s="93"/>
+      <c r="A249" s="94"/>
+      <c r="B249" s="94"/>
+      <c r="C249" s="94"/>
       <c r="D249" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A250" s="93"/>
-      <c r="B250" s="93"/>
-      <c r="C250" s="94"/>
+      <c r="A250" s="94"/>
+      <c r="B250" s="94"/>
+      <c r="C250" s="95"/>
       <c r="D250" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="93"/>
-      <c r="B251" s="93"/>
-      <c r="C251" s="92" t="s">
+      <c r="A251" s="94"/>
+      <c r="B251" s="94"/>
+      <c r="C251" s="93" t="s">
         <v>160</v>
       </c>
       <c r="D251" s="8" t="s">
@@ -25082,70 +27292,123 @@
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="93"/>
-      <c r="B252" s="93"/>
-      <c r="C252" s="93"/>
+      <c r="A252" s="94"/>
+      <c r="B252" s="94"/>
+      <c r="C252" s="94"/>
       <c r="D252" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="93"/>
-      <c r="B253" s="93"/>
-      <c r="C253" s="93"/>
+      <c r="A253" s="94"/>
+      <c r="B253" s="94"/>
+      <c r="C253" s="94"/>
       <c r="D253" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="93"/>
-      <c r="B254" s="93"/>
-      <c r="C254" s="93"/>
+      <c r="A254" s="94"/>
+      <c r="B254" s="94"/>
+      <c r="C254" s="94"/>
       <c r="D254" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A255" s="94"/>
-      <c r="B255" s="94"/>
-      <c r="C255" s="94"/>
+      <c r="A255" s="95"/>
+      <c r="B255" s="95"/>
+      <c r="C255" s="95"/>
       <c r="D255" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A256" s="95" t="s">
+      <c r="A256" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="B256" s="95"/>
-      <c r="C256" s="95"/>
-      <c r="D256" s="95"/>
+      <c r="B256" s="97"/>
+      <c r="C256" s="97"/>
+      <c r="D256" s="97"/>
     </row>
     <row r="257" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A257" s="95" t="s">
+      <c r="A257" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="B257" s="95"/>
-      <c r="C257" s="95"/>
-      <c r="D257" s="95"/>
+      <c r="B257" s="97"/>
+      <c r="C257" s="97"/>
+      <c r="D257" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="B185:B191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C246:C250"/>
-    <mergeCell ref="C251:C255"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A256:D256"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A246:A255"/>
-    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A165:A171"/>
+    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A123:A129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="B137:B144"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="A106:A110"/>
     <mergeCell ref="B106:B110"/>
     <mergeCell ref="A111:A116"/>
@@ -25170,78 +27433,25 @@
     <mergeCell ref="B213:B217"/>
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A123:A129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="B137:B144"/>
-    <mergeCell ref="A145:A151"/>
-    <mergeCell ref="B145:B151"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="B185:B191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C246:C250"/>
+    <mergeCell ref="C251:C255"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A256:D256"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A246:A255"/>
+    <mergeCell ref="B246:B255"/>
     <mergeCell ref="A225:C225"/>
     <mergeCell ref="A226:C226"/>
     <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A165:A171"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A95:A96"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" location="n16s7r916c9vv8n18fjp07ejuljv" display="https://documentation.sas.com/ - n16s7r916c9vv8n18fjp07ejuljv" xr:uid="{AFB037F9-1CB2-40B9-A49F-69C0B55AD554}"/>
@@ -25287,11 +27497,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="37" t="s">
